--- a/individual_results/avey/75.xlsx
+++ b/individual_results/avey/75.xlsx
@@ -600,7 +600,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="V2" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="W2" t="n">
         <v>0.5</v>
@@ -673,7 +673,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="W3" t="n">
         <v>0.6666666666666666</v>
@@ -738,7 +738,7 @@
         <v>0.4</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
@@ -748,7 +748,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="W4" t="n">
         <v>0.5714285714285715</v>
@@ -801,7 +801,7 @@
         <v>0.5263157894736842</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7142857142857142</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
@@ -811,7 +811,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9375</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="W5" t="n">
         <v>0.625</v>
@@ -872,7 +872,7 @@
         <v>0.9049495058460971</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5766666455144387</v>
+        <v>0.1064646477465997</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>0.5766666455144387</v>
       </c>
       <c r="V6" t="n">
-        <v>0.9803837490249432</v>
+        <v>0.6298989693877386</v>
       </c>
       <c r="W6" t="n">
         <v>0.6077574819118444</v>
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="R8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -1155,9 +1155,7 @@
       <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
         <v>2</v>
@@ -1237,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
         <v>1.333333333333333</v>
